--- a/MTA.xlsx
+++ b/MTA.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\WS17\PSE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dog\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -239,16 +239,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="de-DE"/>
@@ -396,7 +393,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D72E-407F-97E8-FD08F4D0C639}"/>
             </c:ext>
@@ -480,13 +477,13 @@
                   <c:v>43049</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43047</c:v>
+                  <c:v>43049</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D72E-407F-97E8-FD08F4D0C639}"/>
             </c:ext>
@@ -572,11 +569,14 @@
                 <c:pt idx="1">
                   <c:v>43057</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>43073</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D72E-407F-97E8-FD08F4D0C639}"/>
             </c:ext>
@@ -662,11 +662,14 @@
                 <c:pt idx="1">
                   <c:v>43089</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>43089</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-D72E-407F-97E8-FD08F4D0C639}"/>
             </c:ext>
@@ -752,11 +755,14 @@
                 <c:pt idx="1">
                   <c:v>43117</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>43117</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-D72E-407F-97E8-FD08F4D0C639}"/>
             </c:ext>
@@ -842,11 +848,14 @@
                 <c:pt idx="1">
                   <c:v>43144</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>43144</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-D72E-407F-97E8-FD08F4D0C639}"/>
             </c:ext>
@@ -938,11 +947,14 @@
                 <c:pt idx="1">
                   <c:v>43144</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>43144</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-D72E-407F-97E8-FD08F4D0C639}"/>
             </c:ext>
@@ -1047,7 +1059,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-D72E-407F-97E8-FD08F4D0C639}"/>
             </c:ext>
@@ -1061,11 +1073,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="501863440"/>
-        <c:axId val="501863768"/>
+        <c:axId val="-766416272"/>
+        <c:axId val="-603876224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="501863440"/>
+        <c:axId val="-766416272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1122,12 +1134,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501863768"/>
+        <c:crossAx val="-603876224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="501863768"/>
+        <c:axId val="-603876224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1184,7 +1196,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="501863440"/>
+        <c:crossAx val="-766416272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2122,7 +2134,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2204,7 +2216,7 @@
         <v>43049</v>
       </c>
       <c r="C4" s="1">
-        <v>43047</v>
+        <v>43049</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2222,7 +2234,9 @@
       <c r="C5" s="1">
         <v>43057</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1">
+        <v>43073</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -2238,7 +2252,9 @@
       <c r="C6" s="1">
         <v>43089</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1">
+        <v>43089</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -2254,7 +2270,9 @@
       <c r="C7" s="1">
         <v>43117</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1">
+        <v>43117</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -2270,7 +2288,9 @@
       <c r="C8" s="1">
         <v>43144</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1">
+        <v>43144</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -2286,7 +2306,9 @@
       <c r="C9" s="1">
         <v>43144</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1">
+        <v>43144</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
